--- a/Data3.xlsx
+++ b/Data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\# Bioelectronics\4th year\Indoor-Localiztion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E021BAB6-472B-4341-B1DB-9D7BA1D75C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8312604D-908F-4618-850D-0DFC27E0E93A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -751,8 +751,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -820,10 +820,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="6">
         <v>-47</v>
@@ -861,10 +861,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="10">
         <v>-47</v>
@@ -902,10 +902,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6">
         <v>-48</v>
@@ -943,10 +943,10 @@
         <v>6</v>
       </c>
       <c r="C5" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="6">
         <v>-37</v>
@@ -984,10 +984,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="6">
         <v>-47</v>
@@ -1025,10 +1025,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="6">
         <v>-50</v>
@@ -1066,10 +1066,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="6">
         <v>-50</v>
@@ -1107,10 +1107,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="7">
         <v>-45</v>
@@ -1148,10 +1148,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="6">
         <v>-50</v>
@@ -1189,10 +1189,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="10">
         <v>-51</v>
@@ -1230,10 +1230,10 @@
         <v>6</v>
       </c>
       <c r="C12" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="10">
         <v>-49</v>
@@ -1271,10 +1271,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="10">
         <v>-48</v>
@@ -1312,10 +1312,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="10">
         <v>-50</v>
@@ -1353,10 +1353,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="10">
         <v>-45</v>
@@ -1394,10 +1394,10 @@
         <v>6</v>
       </c>
       <c r="C16" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="10">
         <v>-46</v>
@@ -1435,10 +1435,10 @@
         <v>6</v>
       </c>
       <c r="C17" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="5">
         <v>-53</v>
@@ -1476,10 +1476,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="5">
         <v>-53</v>
@@ -1517,10 +1517,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="5">
         <v>-48</v>
@@ -1558,10 +1558,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4">
         <v>-53</v>
@@ -1599,10 +1599,10 @@
         <v>6</v>
       </c>
       <c r="C21" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="5">
         <v>-49</v>
@@ -1640,10 +1640,10 @@
         <v>6</v>
       </c>
       <c r="C22" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="5">
         <v>-47</v>
@@ -1681,10 +1681,10 @@
         <v>6</v>
       </c>
       <c r="C23" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="5">
         <v>-50</v>
@@ -1722,10 +1722,10 @@
         <v>6</v>
       </c>
       <c r="C24" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="5">
         <v>-55</v>
@@ -1763,10 +1763,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="5">
         <v>-48</v>
@@ -1804,10 +1804,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="5">
         <v>-49</v>
@@ -1845,10 +1845,10 @@
         <v>6</v>
       </c>
       <c r="C27" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="4">
         <v>-46</v>
@@ -1886,10 +1886,10 @@
         <v>6</v>
       </c>
       <c r="C28" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="5">
         <v>-53</v>
@@ -1927,10 +1927,10 @@
         <v>6</v>
       </c>
       <c r="C29" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="5">
         <v>-54</v>
@@ -1968,10 +1968,10 @@
         <v>6</v>
       </c>
       <c r="C30" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="5">
         <v>-51</v>
@@ -2009,10 +2009,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" s="5">
         <v>-52</v>
@@ -2050,10 +2050,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="5">
         <v>-51</v>
@@ -2091,10 +2091,10 @@
         <v>6</v>
       </c>
       <c r="C33" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="5">
         <v>-50</v>
@@ -2132,10 +2132,10 @@
         <v>6</v>
       </c>
       <c r="C34" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" s="5">
         <v>-47</v>
@@ -2173,10 +2173,10 @@
         <v>6</v>
       </c>
       <c r="C35" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="5">
         <v>-52</v>
@@ -2214,10 +2214,10 @@
         <v>6</v>
       </c>
       <c r="C36" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="5">
         <v>-49</v>
@@ -2255,10 +2255,10 @@
         <v>6</v>
       </c>
       <c r="C37" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="5">
         <v>-51</v>
@@ -2296,10 +2296,10 @@
         <v>6</v>
       </c>
       <c r="C38" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="5">
         <v>-62</v>
@@ -2337,10 +2337,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="5">
         <v>-51</v>
@@ -2378,10 +2378,10 @@
         <v>6</v>
       </c>
       <c r="C40" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="5">
         <v>-47</v>
@@ -2419,10 +2419,10 @@
         <v>6</v>
       </c>
       <c r="C41" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="5">
         <v>-49</v>
@@ -2460,10 +2460,10 @@
         <v>6</v>
       </c>
       <c r="C42" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="5">
         <v>-51</v>
@@ -2501,10 +2501,10 @@
         <v>6</v>
       </c>
       <c r="C43" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="5">
         <v>-50</v>
@@ -2542,10 +2542,10 @@
         <v>6</v>
       </c>
       <c r="C44" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" s="5">
         <v>-43</v>
@@ -2583,10 +2583,10 @@
         <v>6</v>
       </c>
       <c r="C45" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="5">
         <v>-49</v>
@@ -2624,10 +2624,10 @@
         <v>6</v>
       </c>
       <c r="C46" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="5">
         <v>-45</v>
@@ -2665,10 +2665,10 @@
         <v>6</v>
       </c>
       <c r="C47" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="5">
         <v>-50</v>
@@ -2706,10 +2706,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" s="5">
         <v>-99</v>
@@ -2747,10 +2747,10 @@
         <v>6</v>
       </c>
       <c r="C49" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="5">
         <v>-55</v>
@@ -2788,10 +2788,10 @@
         <v>6</v>
       </c>
       <c r="C50" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" s="5">
         <v>-53</v>
@@ -2829,10 +2829,10 @@
         <v>6</v>
       </c>
       <c r="C51" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="5">
         <v>-51</v>
@@ -2870,10 +2870,10 @@
         <v>6</v>
       </c>
       <c r="C52" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" s="5">
         <v>-49</v>
@@ -2911,10 +2911,10 @@
         <v>6</v>
       </c>
       <c r="C53" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="5">
         <v>-48</v>
@@ -2952,10 +2952,10 @@
         <v>6</v>
       </c>
       <c r="C54" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="5">
         <v>-49</v>
@@ -2993,10 +2993,10 @@
         <v>6</v>
       </c>
       <c r="C55" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="5">
         <v>-47</v>
@@ -3034,10 +3034,10 @@
         <v>6</v>
       </c>
       <c r="C56" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="5">
         <v>-51</v>
@@ -3075,10 +3075,10 @@
         <v>6</v>
       </c>
       <c r="C57" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="5">
         <v>-49</v>
@@ -3116,10 +3116,10 @@
         <v>6</v>
       </c>
       <c r="C58" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="5">
         <v>-55</v>
@@ -3157,10 +3157,10 @@
         <v>6</v>
       </c>
       <c r="C59" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="5">
         <v>-50</v>
@@ -3198,10 +3198,10 @@
         <v>6</v>
       </c>
       <c r="C60" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="5">
         <v>-58</v>
@@ -3239,10 +3239,10 @@
         <v>6</v>
       </c>
       <c r="C61" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="5">
         <v>-49</v>
@@ -3280,10 +3280,10 @@
         <v>6</v>
       </c>
       <c r="C62" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="5">
         <v>-52</v>
@@ -3322,7 +3322,7 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>20</v>
@@ -3360,7 +3360,7 @@
         <v>7</v>
       </c>
       <c r="C64" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D64" s="5">
         <v>2</v>
@@ -3401,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D65" s="5">
         <v>2</v>
@@ -3442,7 +3442,7 @@
         <v>7</v>
       </c>
       <c r="C66" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D66" s="5">
         <v>2</v>
@@ -3483,7 +3483,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D67" s="5">
         <v>2</v>
@@ -3524,7 +3524,7 @@
         <v>7</v>
       </c>
       <c r="C68" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D68" s="5">
         <v>2</v>
@@ -3565,7 +3565,7 @@
         <v>7</v>
       </c>
       <c r="C69" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D69" s="5">
         <v>2</v>
@@ -3606,7 +3606,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D70" s="5">
         <v>2</v>
@@ -3647,7 +3647,7 @@
         <v>7</v>
       </c>
       <c r="C71" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D71" s="5">
         <v>2</v>
@@ -3688,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="C72" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D72" s="5">
         <v>2</v>
@@ -3729,7 +3729,7 @@
         <v>7</v>
       </c>
       <c r="C73" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D73" s="5">
         <v>2</v>
@@ -3770,7 +3770,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74" s="5">
         <v>2</v>
@@ -3811,7 +3811,7 @@
         <v>7</v>
       </c>
       <c r="C75" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D75" s="5">
         <v>2</v>
@@ -3852,7 +3852,7 @@
         <v>7</v>
       </c>
       <c r="C76" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D76" s="5">
         <v>2</v>
@@ -3893,7 +3893,7 @@
         <v>7</v>
       </c>
       <c r="C77" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D77" s="5">
         <v>2</v>
@@ -3934,7 +3934,7 @@
         <v>7</v>
       </c>
       <c r="C78" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D78" s="5">
         <v>2</v>
@@ -3975,7 +3975,7 @@
         <v>7</v>
       </c>
       <c r="C79" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D79" s="5">
         <v>2</v>
@@ -4016,7 +4016,7 @@
         <v>7</v>
       </c>
       <c r="C80" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D80" s="5">
         <v>2</v>
@@ -4057,7 +4057,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" s="5">
         <v>2</v>
@@ -4098,7 +4098,7 @@
         <v>7</v>
       </c>
       <c r="C82" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D82" s="5">
         <v>2</v>
@@ -4139,7 +4139,7 @@
         <v>7</v>
       </c>
       <c r="C83" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D83" s="5">
         <v>2</v>
@@ -4180,7 +4180,7 @@
         <v>7</v>
       </c>
       <c r="C84" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D84" s="5">
         <v>2</v>
@@ -4221,7 +4221,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D85" s="5">
         <v>2</v>
@@ -4262,7 +4262,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D86" s="5">
         <v>2</v>
@@ -4303,7 +4303,7 @@
         <v>7</v>
       </c>
       <c r="C87" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D87" s="5">
         <v>2</v>
@@ -4344,7 +4344,7 @@
         <v>7</v>
       </c>
       <c r="C88" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D88" s="5">
         <v>2</v>
@@ -4385,7 +4385,7 @@
         <v>7</v>
       </c>
       <c r="C89" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D89" s="5">
         <v>2</v>
@@ -4426,7 +4426,7 @@
         <v>7</v>
       </c>
       <c r="C90" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D90" s="5">
         <v>2</v>
@@ -4467,7 +4467,7 @@
         <v>7</v>
       </c>
       <c r="C91" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D91" s="5">
         <v>2</v>
@@ -4508,7 +4508,7 @@
         <v>7</v>
       </c>
       <c r="C92" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D92" s="5">
         <v>2</v>
@@ -4549,7 +4549,7 @@
         <v>7</v>
       </c>
       <c r="C93" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D93" s="5">
         <v>2</v>
@@ -4590,7 +4590,7 @@
         <v>7</v>
       </c>
       <c r="C94" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D94" s="5">
         <v>2</v>
@@ -4631,7 +4631,7 @@
         <v>7</v>
       </c>
       <c r="C95" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D95" s="5">
         <v>2</v>
@@ -4672,7 +4672,7 @@
         <v>7</v>
       </c>
       <c r="C96" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D96" s="5">
         <v>2</v>
@@ -4713,7 +4713,7 @@
         <v>7</v>
       </c>
       <c r="C97" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D97" s="5">
         <v>2</v>
@@ -4754,7 +4754,7 @@
         <v>7</v>
       </c>
       <c r="C98" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D98" s="5">
         <v>2</v>
@@ -4795,7 +4795,7 @@
         <v>7</v>
       </c>
       <c r="C99" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D99" s="5">
         <v>2</v>
@@ -4836,7 +4836,7 @@
         <v>7</v>
       </c>
       <c r="C100" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D100" s="5">
         <v>2</v>
@@ -4877,7 +4877,7 @@
         <v>7</v>
       </c>
       <c r="C101" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D101" s="5">
         <v>2</v>
@@ -4918,7 +4918,7 @@
         <v>7</v>
       </c>
       <c r="C102" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D102" s="5">
         <v>2</v>
@@ -4959,7 +4959,7 @@
         <v>7</v>
       </c>
       <c r="C103" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D103" s="5">
         <v>2</v>
@@ -5000,7 +5000,7 @@
         <v>7</v>
       </c>
       <c r="C104" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D104" s="5">
         <v>2</v>
@@ -5041,7 +5041,7 @@
         <v>7</v>
       </c>
       <c r="C105" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D105" s="5">
         <v>2</v>
@@ -5082,7 +5082,7 @@
         <v>7</v>
       </c>
       <c r="C106" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D106" s="5">
         <v>2</v>
@@ -5123,7 +5123,7 @@
         <v>7</v>
       </c>
       <c r="C107" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D107" s="5">
         <v>2</v>
@@ -5164,7 +5164,7 @@
         <v>7</v>
       </c>
       <c r="C108" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D108" s="5">
         <v>2</v>
@@ -5205,7 +5205,7 @@
         <v>7</v>
       </c>
       <c r="C109" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D109" s="5">
         <v>2</v>
@@ -5246,7 +5246,7 @@
         <v>7</v>
       </c>
       <c r="C110" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D110" s="5">
         <v>2</v>
@@ -5287,7 +5287,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D111" s="5">
         <v>2</v>
@@ -5328,7 +5328,7 @@
         <v>7</v>
       </c>
       <c r="C112" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D112" s="5">
         <v>2</v>
@@ -5369,7 +5369,7 @@
         <v>7</v>
       </c>
       <c r="C113" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D113" s="5">
         <v>2</v>
@@ -5410,7 +5410,7 @@
         <v>7</v>
       </c>
       <c r="C114" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D114" s="5">
         <v>2</v>
@@ -5451,7 +5451,7 @@
         <v>7</v>
       </c>
       <c r="C115" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D115" s="5">
         <v>2</v>
@@ -5492,7 +5492,7 @@
         <v>7</v>
       </c>
       <c r="C116" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D116" s="5">
         <v>2</v>
@@ -5533,7 +5533,7 @@
         <v>7</v>
       </c>
       <c r="C117" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D117" s="5">
         <v>2</v>
@@ -5574,7 +5574,7 @@
         <v>7</v>
       </c>
       <c r="C118" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D118" s="5">
         <v>2</v>
@@ -5615,7 +5615,7 @@
         <v>7</v>
       </c>
       <c r="C119" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D119" s="5">
         <v>2</v>
@@ -5656,7 +5656,7 @@
         <v>7</v>
       </c>
       <c r="C120" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D120" s="5">
         <v>2</v>
@@ -5697,7 +5697,7 @@
         <v>7</v>
       </c>
       <c r="C121" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D121" s="5">
         <v>2</v>
@@ -5738,7 +5738,7 @@
         <v>7</v>
       </c>
       <c r="C122" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D122" s="5">
         <v>2</v>
@@ -5779,7 +5779,7 @@
         <v>7</v>
       </c>
       <c r="C123" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D123" s="5">
         <v>2</v>
@@ -5820,7 +5820,7 @@
         <v>7</v>
       </c>
       <c r="C124" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D124" s="5">
         <v>2</v>
@@ -5898,7 +5898,7 @@
         <v>8</v>
       </c>
       <c r="C126" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" s="5">
         <v>2</v>
@@ -5939,7 +5939,7 @@
         <v>8</v>
       </c>
       <c r="C127" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D127" s="5">
         <v>2</v>
@@ -5980,7 +5980,7 @@
         <v>8</v>
       </c>
       <c r="C128" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D128" s="5">
         <v>2</v>
@@ -6021,7 +6021,7 @@
         <v>8</v>
       </c>
       <c r="C129" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D129" s="5">
         <v>2</v>
@@ -6062,7 +6062,7 @@
         <v>8</v>
       </c>
       <c r="C130" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D130" s="5">
         <v>2</v>
@@ -6103,7 +6103,7 @@
         <v>8</v>
       </c>
       <c r="C131" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D131" s="5">
         <v>2</v>
@@ -6144,7 +6144,7 @@
         <v>8</v>
       </c>
       <c r="C132" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D132" s="5">
         <v>2</v>
@@ -6185,7 +6185,7 @@
         <v>8</v>
       </c>
       <c r="C133" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D133" s="5">
         <v>2</v>
@@ -6226,7 +6226,7 @@
         <v>8</v>
       </c>
       <c r="C134" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D134" s="5">
         <v>2</v>
@@ -6267,7 +6267,7 @@
         <v>8</v>
       </c>
       <c r="C135" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D135" s="5">
         <v>2</v>
@@ -6308,7 +6308,7 @@
         <v>8</v>
       </c>
       <c r="C136" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D136" s="5">
         <v>2</v>
@@ -6349,7 +6349,7 @@
         <v>8</v>
       </c>
       <c r="C137" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D137" s="5">
         <v>2</v>
@@ -6390,7 +6390,7 @@
         <v>8</v>
       </c>
       <c r="C138" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D138" s="5">
         <v>2</v>
@@ -6431,7 +6431,7 @@
         <v>8</v>
       </c>
       <c r="C139" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D139" s="5">
         <v>2</v>
@@ -6472,7 +6472,7 @@
         <v>8</v>
       </c>
       <c r="C140" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D140" s="5">
         <v>2</v>
@@ -6513,7 +6513,7 @@
         <v>8</v>
       </c>
       <c r="C141" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D141" s="5">
         <v>2</v>
@@ -6554,7 +6554,7 @@
         <v>8</v>
       </c>
       <c r="C142" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D142" s="5">
         <v>2</v>
@@ -6595,7 +6595,7 @@
         <v>8</v>
       </c>
       <c r="C143" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D143" s="5">
         <v>2</v>
@@ -6636,7 +6636,7 @@
         <v>8</v>
       </c>
       <c r="C144" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D144" s="5">
         <v>2</v>
@@ -6677,7 +6677,7 @@
         <v>8</v>
       </c>
       <c r="C145" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D145" s="5">
         <v>2</v>
@@ -6718,7 +6718,7 @@
         <v>8</v>
       </c>
       <c r="C146" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D146" s="5">
         <v>2</v>
@@ -6759,7 +6759,7 @@
         <v>8</v>
       </c>
       <c r="C147" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D147" s="5">
         <v>2</v>
@@ -6800,7 +6800,7 @@
         <v>8</v>
       </c>
       <c r="C148" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D148" s="5">
         <v>2</v>
@@ -6841,7 +6841,7 @@
         <v>8</v>
       </c>
       <c r="C149" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D149" s="5">
         <v>2</v>
@@ -6882,7 +6882,7 @@
         <v>8</v>
       </c>
       <c r="C150" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D150" s="5">
         <v>2</v>
@@ -6923,7 +6923,7 @@
         <v>8</v>
       </c>
       <c r="C151" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D151" s="5">
         <v>2</v>
@@ -6964,7 +6964,7 @@
         <v>8</v>
       </c>
       <c r="C152" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D152" s="5">
         <v>2</v>
@@ -7005,7 +7005,7 @@
         <v>8</v>
       </c>
       <c r="C153" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D153" s="5">
         <v>2</v>
@@ -7046,7 +7046,7 @@
         <v>8</v>
       </c>
       <c r="C154" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D154" s="5">
         <v>2</v>
@@ -7087,7 +7087,7 @@
         <v>8</v>
       </c>
       <c r="C155" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D155" s="5">
         <v>2</v>
@@ -7128,7 +7128,7 @@
         <v>8</v>
       </c>
       <c r="C156" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D156" s="5">
         <v>2</v>
@@ -7169,7 +7169,7 @@
         <v>8</v>
       </c>
       <c r="C157" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D157" s="5">
         <v>2</v>
@@ -7210,7 +7210,7 @@
         <v>8</v>
       </c>
       <c r="C158" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D158" s="5">
         <v>2</v>
@@ -7251,7 +7251,7 @@
         <v>8</v>
       </c>
       <c r="C159" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D159" s="5">
         <v>2</v>
@@ -7292,7 +7292,7 @@
         <v>8</v>
       </c>
       <c r="C160" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D160" s="5">
         <v>2</v>
@@ -7333,7 +7333,7 @@
         <v>8</v>
       </c>
       <c r="C161" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D161" s="5">
         <v>2</v>
@@ -7374,7 +7374,7 @@
         <v>8</v>
       </c>
       <c r="C162" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D162" s="5">
         <v>2</v>
@@ -7415,7 +7415,7 @@
         <v>8</v>
       </c>
       <c r="C163" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D163" s="5">
         <v>2</v>
@@ -7456,7 +7456,7 @@
         <v>8</v>
       </c>
       <c r="C164" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D164" s="5">
         <v>2</v>
@@ -7497,7 +7497,7 @@
         <v>8</v>
       </c>
       <c r="C165" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D165" s="5">
         <v>2</v>
@@ -7538,7 +7538,7 @@
         <v>8</v>
       </c>
       <c r="C166" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D166" s="5">
         <v>2</v>
@@ -7579,7 +7579,7 @@
         <v>8</v>
       </c>
       <c r="C167" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D167" s="5">
         <v>2</v>
@@ -7620,7 +7620,7 @@
         <v>8</v>
       </c>
       <c r="C168" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D168" s="5">
         <v>2</v>
@@ -7661,7 +7661,7 @@
         <v>8</v>
       </c>
       <c r="C169" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D169" s="5">
         <v>2</v>
@@ -7702,7 +7702,7 @@
         <v>8</v>
       </c>
       <c r="C170" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D170" s="5">
         <v>2</v>
@@ -7743,7 +7743,7 @@
         <v>8</v>
       </c>
       <c r="C171" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D171" s="5">
         <v>2</v>
@@ -7784,7 +7784,7 @@
         <v>8</v>
       </c>
       <c r="C172" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D172" s="5">
         <v>2</v>
@@ -7825,7 +7825,7 @@
         <v>8</v>
       </c>
       <c r="C173" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D173" s="5">
         <v>2</v>
@@ -7866,7 +7866,7 @@
         <v>8</v>
       </c>
       <c r="C174" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D174" s="5">
         <v>2</v>
@@ -7907,7 +7907,7 @@
         <v>8</v>
       </c>
       <c r="C175" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D175" s="5">
         <v>2</v>
@@ -7948,7 +7948,7 @@
         <v>8</v>
       </c>
       <c r="C176" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D176" s="5">
         <v>2</v>
@@ -7989,7 +7989,7 @@
         <v>8</v>
       </c>
       <c r="C177" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D177" s="5">
         <v>2</v>
@@ -8030,7 +8030,7 @@
         <v>8</v>
       </c>
       <c r="C178" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D178" s="5">
         <v>2</v>
@@ -8071,7 +8071,7 @@
         <v>8</v>
       </c>
       <c r="C179" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D179" s="5">
         <v>2</v>
@@ -8112,7 +8112,7 @@
         <v>8</v>
       </c>
       <c r="C180" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D180" s="5">
         <v>2</v>
@@ -8153,7 +8153,7 @@
         <v>8</v>
       </c>
       <c r="C181" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D181" s="5">
         <v>2</v>
@@ -8194,7 +8194,7 @@
         <v>8</v>
       </c>
       <c r="C182" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D182" s="5">
         <v>2</v>
@@ -8235,7 +8235,7 @@
         <v>8</v>
       </c>
       <c r="C183" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D183" s="5">
         <v>2</v>
@@ -8276,7 +8276,7 @@
         <v>8</v>
       </c>
       <c r="C184" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D184" s="5">
         <v>2</v>
@@ -8317,7 +8317,7 @@
         <v>8</v>
       </c>
       <c r="C185" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D185" s="5">
         <v>2</v>
@@ -8358,7 +8358,7 @@
         <v>8</v>
       </c>
       <c r="C186" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D186" s="5">
         <v>2</v>
@@ -8436,7 +8436,7 @@
         <v>9</v>
       </c>
       <c r="C188" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" s="5">
         <v>3</v>
@@ -8477,7 +8477,7 @@
         <v>9</v>
       </c>
       <c r="C189" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" s="5">
         <v>3</v>
@@ -8518,7 +8518,7 @@
         <v>9</v>
       </c>
       <c r="C190" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" s="5">
         <v>3</v>
@@ -8559,7 +8559,7 @@
         <v>9</v>
       </c>
       <c r="C191" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" s="5">
         <v>3</v>
@@ -8600,7 +8600,7 @@
         <v>9</v>
       </c>
       <c r="C192" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" s="5">
         <v>3</v>
@@ -8641,7 +8641,7 @@
         <v>9</v>
       </c>
       <c r="C193" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" s="5">
         <v>3</v>
@@ -8682,7 +8682,7 @@
         <v>9</v>
       </c>
       <c r="C194" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" s="5">
         <v>3</v>
@@ -8723,7 +8723,7 @@
         <v>9</v>
       </c>
       <c r="C195" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" s="5">
         <v>3</v>
@@ -8764,7 +8764,7 @@
         <v>9</v>
       </c>
       <c r="C196" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" s="5">
         <v>3</v>
@@ -8805,7 +8805,7 @@
         <v>9</v>
       </c>
       <c r="C197" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" s="5">
         <v>3</v>
@@ -8846,7 +8846,7 @@
         <v>9</v>
       </c>
       <c r="C198" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" s="5">
         <v>3</v>
@@ -8887,7 +8887,7 @@
         <v>9</v>
       </c>
       <c r="C199" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" s="5">
         <v>3</v>
@@ -8928,7 +8928,7 @@
         <v>9</v>
       </c>
       <c r="C200" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" s="5">
         <v>3</v>
@@ -8969,7 +8969,7 @@
         <v>9</v>
       </c>
       <c r="C201" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" s="5">
         <v>3</v>
@@ -9010,7 +9010,7 @@
         <v>9</v>
       </c>
       <c r="C202" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" s="5">
         <v>3</v>
@@ -9051,7 +9051,7 @@
         <v>9</v>
       </c>
       <c r="C203" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" s="5">
         <v>3</v>
@@ -9092,7 +9092,7 @@
         <v>9</v>
       </c>
       <c r="C204" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" s="5">
         <v>3</v>
@@ -9133,7 +9133,7 @@
         <v>9</v>
       </c>
       <c r="C205" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" s="5">
         <v>3</v>
@@ -9174,7 +9174,7 @@
         <v>9</v>
       </c>
       <c r="C206" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" s="5">
         <v>3</v>
@@ -9215,7 +9215,7 @@
         <v>9</v>
       </c>
       <c r="C207" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" s="5">
         <v>3</v>
@@ -9256,7 +9256,7 @@
         <v>9</v>
       </c>
       <c r="C208" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" s="5">
         <v>3</v>
@@ -9297,7 +9297,7 @@
         <v>9</v>
       </c>
       <c r="C209" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" s="5">
         <v>3</v>
@@ -9338,7 +9338,7 @@
         <v>9</v>
       </c>
       <c r="C210" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" s="5">
         <v>3</v>
@@ -9379,7 +9379,7 @@
         <v>9</v>
       </c>
       <c r="C211" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" s="5">
         <v>3</v>
@@ -9420,7 +9420,7 @@
         <v>9</v>
       </c>
       <c r="C212" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" s="5">
         <v>3</v>
@@ -9461,7 +9461,7 @@
         <v>9</v>
       </c>
       <c r="C213" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" s="5">
         <v>3</v>
@@ -9502,7 +9502,7 @@
         <v>9</v>
       </c>
       <c r="C214" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" s="5">
         <v>3</v>
@@ -9543,7 +9543,7 @@
         <v>9</v>
       </c>
       <c r="C215" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" s="5">
         <v>3</v>
@@ -9584,7 +9584,7 @@
         <v>9</v>
       </c>
       <c r="C216" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" s="5">
         <v>3</v>
@@ -9625,7 +9625,7 @@
         <v>9</v>
       </c>
       <c r="C217" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" s="5">
         <v>3</v>
@@ -9666,7 +9666,7 @@
         <v>9</v>
       </c>
       <c r="C218" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" s="5">
         <v>3</v>
@@ -9707,7 +9707,7 @@
         <v>9</v>
       </c>
       <c r="C219" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" s="5">
         <v>3</v>
@@ -9748,7 +9748,7 @@
         <v>9</v>
       </c>
       <c r="C220" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" s="5">
         <v>3</v>
@@ -9789,7 +9789,7 @@
         <v>9</v>
       </c>
       <c r="C221" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" s="5">
         <v>3</v>
@@ -9830,7 +9830,7 @@
         <v>9</v>
       </c>
       <c r="C222" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" s="5">
         <v>3</v>
@@ -9871,7 +9871,7 @@
         <v>9</v>
       </c>
       <c r="C223" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" s="5">
         <v>3</v>
@@ -9912,7 +9912,7 @@
         <v>9</v>
       </c>
       <c r="C224" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" s="5">
         <v>3</v>
@@ -9953,7 +9953,7 @@
         <v>9</v>
       </c>
       <c r="C225" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" s="5">
         <v>3</v>
@@ -9994,7 +9994,7 @@
         <v>9</v>
       </c>
       <c r="C226" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" s="5">
         <v>3</v>
@@ -10035,7 +10035,7 @@
         <v>9</v>
       </c>
       <c r="C227" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" s="5">
         <v>3</v>
@@ -10076,7 +10076,7 @@
         <v>9</v>
       </c>
       <c r="C228" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" s="5">
         <v>3</v>
@@ -10117,7 +10117,7 @@
         <v>9</v>
       </c>
       <c r="C229" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" s="5">
         <v>3</v>
@@ -10158,7 +10158,7 @@
         <v>9</v>
       </c>
       <c r="C230" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" s="5">
         <v>3</v>
@@ -10199,7 +10199,7 @@
         <v>9</v>
       </c>
       <c r="C231" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" s="5">
         <v>3</v>
@@ -10240,7 +10240,7 @@
         <v>9</v>
       </c>
       <c r="C232" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" s="5">
         <v>3</v>
@@ -10281,7 +10281,7 @@
         <v>9</v>
       </c>
       <c r="C233" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D233" s="5">
         <v>3</v>
@@ -10322,7 +10322,7 @@
         <v>9</v>
       </c>
       <c r="C234" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D234" s="5">
         <v>3</v>
@@ -10363,7 +10363,7 @@
         <v>9</v>
       </c>
       <c r="C235" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D235" s="5">
         <v>3</v>
@@ -10404,7 +10404,7 @@
         <v>9</v>
       </c>
       <c r="C236" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D236" s="5">
         <v>3</v>
@@ -10445,7 +10445,7 @@
         <v>9</v>
       </c>
       <c r="C237" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D237" s="5">
         <v>3</v>
@@ -10486,7 +10486,7 @@
         <v>9</v>
       </c>
       <c r="C238" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D238" s="5">
         <v>3</v>
@@ -10527,7 +10527,7 @@
         <v>9</v>
       </c>
       <c r="C239" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D239" s="5">
         <v>3</v>
@@ -10568,7 +10568,7 @@
         <v>9</v>
       </c>
       <c r="C240" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D240" s="5">
         <v>3</v>
@@ -10609,7 +10609,7 @@
         <v>9</v>
       </c>
       <c r="C241" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D241" s="5">
         <v>3</v>
@@ -10650,7 +10650,7 @@
         <v>9</v>
       </c>
       <c r="C242" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D242" s="5">
         <v>3</v>
@@ -10691,7 +10691,7 @@
         <v>9</v>
       </c>
       <c r="C243" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D243" s="5">
         <v>3</v>
@@ -10732,7 +10732,7 @@
         <v>9</v>
       </c>
       <c r="C244" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D244" s="5">
         <v>3</v>
@@ -10773,7 +10773,7 @@
         <v>9</v>
       </c>
       <c r="C245" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D245" s="5">
         <v>3</v>
@@ -10814,7 +10814,7 @@
         <v>9</v>
       </c>
       <c r="C246" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D246" s="5">
         <v>3</v>
@@ -10855,7 +10855,7 @@
         <v>9</v>
       </c>
       <c r="C247" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D247" s="5">
         <v>3</v>
@@ -10896,7 +10896,7 @@
         <v>9</v>
       </c>
       <c r="C248" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D248" s="5">
         <v>3</v>
@@ -10974,7 +10974,7 @@
         <v>10</v>
       </c>
       <c r="C250" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D250" s="5">
         <v>3</v>
@@ -11015,7 +11015,7 @@
         <v>10</v>
       </c>
       <c r="C251" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D251" s="5">
         <v>3</v>
@@ -11056,7 +11056,7 @@
         <v>10</v>
       </c>
       <c r="C252" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D252" s="5">
         <v>3</v>
@@ -11097,7 +11097,7 @@
         <v>10</v>
       </c>
       <c r="C253" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D253" s="5">
         <v>3</v>
@@ -11138,7 +11138,7 @@
         <v>10</v>
       </c>
       <c r="C254" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D254" s="5">
         <v>3</v>
@@ -11179,7 +11179,7 @@
         <v>10</v>
       </c>
       <c r="C255" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D255" s="5">
         <v>3</v>
@@ -11220,7 +11220,7 @@
         <v>10</v>
       </c>
       <c r="C256" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D256" s="5">
         <v>3</v>
@@ -11261,7 +11261,7 @@
         <v>10</v>
       </c>
       <c r="C257" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D257" s="5">
         <v>3</v>
@@ -11302,7 +11302,7 @@
         <v>10</v>
       </c>
       <c r="C258" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D258" s="5">
         <v>3</v>
@@ -11343,7 +11343,7 @@
         <v>10</v>
       </c>
       <c r="C259" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D259" s="5">
         <v>3</v>
@@ -11384,7 +11384,7 @@
         <v>10</v>
       </c>
       <c r="C260" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D260" s="5">
         <v>3</v>
@@ -11425,7 +11425,7 @@
         <v>10</v>
       </c>
       <c r="C261" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D261" s="5">
         <v>3</v>
@@ -11466,7 +11466,7 @@
         <v>10</v>
       </c>
       <c r="C262" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D262" s="5">
         <v>3</v>
@@ -11507,7 +11507,7 @@
         <v>10</v>
       </c>
       <c r="C263" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D263" s="5">
         <v>3</v>
@@ -11548,7 +11548,7 @@
         <v>10</v>
       </c>
       <c r="C264" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D264" s="5">
         <v>3</v>
@@ -11589,7 +11589,7 @@
         <v>10</v>
       </c>
       <c r="C265" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D265" s="5">
         <v>3</v>
@@ -11630,7 +11630,7 @@
         <v>10</v>
       </c>
       <c r="C266" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D266" s="5">
         <v>3</v>
@@ -11671,7 +11671,7 @@
         <v>10</v>
       </c>
       <c r="C267" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D267" s="5">
         <v>3</v>
@@ -11712,7 +11712,7 @@
         <v>10</v>
       </c>
       <c r="C268" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D268" s="5">
         <v>3</v>
@@ -11753,7 +11753,7 @@
         <v>10</v>
       </c>
       <c r="C269" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D269" s="5">
         <v>3</v>
@@ -11794,7 +11794,7 @@
         <v>10</v>
       </c>
       <c r="C270" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D270" s="5">
         <v>3</v>
@@ -11835,7 +11835,7 @@
         <v>10</v>
       </c>
       <c r="C271" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D271" s="5">
         <v>3</v>
@@ -11876,7 +11876,7 @@
         <v>10</v>
       </c>
       <c r="C272" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D272" s="5">
         <v>3</v>
@@ -11917,7 +11917,7 @@
         <v>10</v>
       </c>
       <c r="C273" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D273" s="5">
         <v>3</v>
@@ -11958,7 +11958,7 @@
         <v>10</v>
       </c>
       <c r="C274" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D274" s="5">
         <v>3</v>
@@ -11999,7 +11999,7 @@
         <v>10</v>
       </c>
       <c r="C275" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D275" s="5">
         <v>3</v>
@@ -12040,7 +12040,7 @@
         <v>10</v>
       </c>
       <c r="C276" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D276" s="5">
         <v>3</v>
@@ -12081,7 +12081,7 @@
         <v>10</v>
       </c>
       <c r="C277" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D277" s="5">
         <v>3</v>
@@ -12122,7 +12122,7 @@
         <v>10</v>
       </c>
       <c r="C278" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D278" s="5">
         <v>3</v>
@@ -12163,7 +12163,7 @@
         <v>10</v>
       </c>
       <c r="C279" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D279" s="5">
         <v>3</v>
@@ -12204,7 +12204,7 @@
         <v>10</v>
       </c>
       <c r="C280" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D280" s="5">
         <v>3</v>
@@ -12245,7 +12245,7 @@
         <v>10</v>
       </c>
       <c r="C281" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D281" s="5">
         <v>3</v>
@@ -12286,7 +12286,7 @@
         <v>10</v>
       </c>
       <c r="C282" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D282" s="5">
         <v>3</v>
@@ -12327,7 +12327,7 @@
         <v>10</v>
       </c>
       <c r="C283" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D283" s="5">
         <v>3</v>
@@ -12368,7 +12368,7 @@
         <v>10</v>
       </c>
       <c r="C284" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D284" s="5">
         <v>3</v>
@@ -12409,7 +12409,7 @@
         <v>10</v>
       </c>
       <c r="C285" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D285" s="5">
         <v>3</v>
@@ -12450,7 +12450,7 @@
         <v>10</v>
       </c>
       <c r="C286" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D286" s="5">
         <v>3</v>
@@ -12491,7 +12491,7 @@
         <v>10</v>
       </c>
       <c r="C287" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D287" s="5">
         <v>3</v>
@@ -12532,7 +12532,7 @@
         <v>10</v>
       </c>
       <c r="C288" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D288" s="5">
         <v>3</v>
@@ -12573,7 +12573,7 @@
         <v>10</v>
       </c>
       <c r="C289" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D289" s="5">
         <v>3</v>
@@ -12614,7 +12614,7 @@
         <v>10</v>
       </c>
       <c r="C290" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D290" s="5">
         <v>3</v>
@@ -12655,7 +12655,7 @@
         <v>10</v>
       </c>
       <c r="C291" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D291" s="5">
         <v>3</v>
@@ -12696,7 +12696,7 @@
         <v>10</v>
       </c>
       <c r="C292" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D292" s="5">
         <v>3</v>
@@ -12737,7 +12737,7 @@
         <v>10</v>
       </c>
       <c r="C293" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D293" s="5">
         <v>3</v>
@@ -12778,7 +12778,7 @@
         <v>10</v>
       </c>
       <c r="C294" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D294" s="5">
         <v>3</v>
@@ -12819,7 +12819,7 @@
         <v>10</v>
       </c>
       <c r="C295" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D295" s="5">
         <v>3</v>
@@ -12860,7 +12860,7 @@
         <v>10</v>
       </c>
       <c r="C296" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D296" s="5">
         <v>3</v>
@@ -12901,7 +12901,7 @@
         <v>10</v>
       </c>
       <c r="C297" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D297" s="5">
         <v>3</v>
@@ -12942,7 +12942,7 @@
         <v>10</v>
       </c>
       <c r="C298" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D298" s="5">
         <v>3</v>
@@ -12983,7 +12983,7 @@
         <v>10</v>
       </c>
       <c r="C299" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D299" s="5">
         <v>3</v>
@@ -13024,7 +13024,7 @@
         <v>10</v>
       </c>
       <c r="C300" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D300" s="5">
         <v>3</v>
@@ -13065,7 +13065,7 @@
         <v>10</v>
       </c>
       <c r="C301" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D301" s="5">
         <v>3</v>
@@ -13106,7 +13106,7 @@
         <v>10</v>
       </c>
       <c r="C302" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D302" s="5">
         <v>3</v>
@@ -13147,7 +13147,7 @@
         <v>10</v>
       </c>
       <c r="C303" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D303" s="5">
         <v>3</v>
@@ -13188,7 +13188,7 @@
         <v>10</v>
       </c>
       <c r="C304" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D304" s="5">
         <v>3</v>
@@ -13229,7 +13229,7 @@
         <v>10</v>
       </c>
       <c r="C305" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D305" s="5">
         <v>3</v>
@@ -13270,7 +13270,7 @@
         <v>10</v>
       </c>
       <c r="C306" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D306" s="5">
         <v>3</v>
@@ -13311,7 +13311,7 @@
         <v>10</v>
       </c>
       <c r="C307" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D307" s="5">
         <v>3</v>
@@ -13352,7 +13352,7 @@
         <v>10</v>
       </c>
       <c r="C308" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D308" s="5">
         <v>3</v>
@@ -13393,7 +13393,7 @@
         <v>10</v>
       </c>
       <c r="C309" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D309" s="5">
         <v>3</v>
@@ -13434,7 +13434,7 @@
         <v>10</v>
       </c>
       <c r="C310" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D310" s="5">
         <v>3</v>
